--- a/datos_fbref/RESUMEN_STATS_Serie_A.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Serie_A.xlsx
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>61.6</v>
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
         <v>26.8</v>
       </c>
       <c r="D9" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G9" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
@@ -1043,25 +1043,25 @@
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="S9" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="U9" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>26.7</v>
@@ -1683,55 +1683,55 @@
         <v>45.4</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G19" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.12</v>
       </c>
-      <c r="R19" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
